--- a/nmadb/482159.xlsx
+++ b/nmadb/482159.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="13880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>trt</t>
   </si>
   <si>
     <t>aripiprazole</t>
@@ -202,12 +199,15 @@
   <si>
     <t xml:space="preserve">MqQuade </t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,48 +795,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1137,24 +1137,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>5</v>
@@ -1172,18 +1172,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2">
         <v>2003</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>99</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1253,7 +1253,7 @@
         <v>1993</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -1271,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1297,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1334,7 +1334,7 @@
         <v>2003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1352,15 +1352,15 @@
         <v>5</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1378,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1485,7 +1485,7 @@
         <v>2002</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>6</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>6</v>
@@ -1539,7 +1539,7 @@
         <v>1994</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>7</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>8</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
         <v>8</v>
@@ -1718,7 +1718,7 @@
         <v>2006</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <v>11</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <v>11</v>
@@ -1755,7 +1755,7 @@
         <v>2006</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
         <v>12</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <v>12</v>
@@ -1792,7 +1792,7 @@
         <v>2006</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <v>13</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <v>13</v>
@@ -1829,7 +1829,7 @@
         <v>2008</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <v>14</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>14</v>
@@ -1866,7 +1866,7 @@
         <v>2004</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <v>15</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>15</v>
@@ -1903,7 +1903,7 @@
         <v>2001</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <v>16</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
         <v>16</v>
@@ -1940,7 +1940,7 @@
         <v>1997</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1">
         <v>17</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
         <v>17</v>
@@ -1977,7 +1977,7 @@
         <v>2006</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1">
         <v>18</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1">
         <v>18</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1">
         <v>18</v>
@@ -2031,7 +2031,7 @@
         <v>1998</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1">
         <v>19</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1">
         <v>19</v>
@@ -2068,7 +2068,7 @@
         <v>2001</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1">
         <v>20</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1">
         <v>20</v>
@@ -2105,7 +2105,7 @@
         <v>2001</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1">
         <v>21</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1">
         <v>21</v>
@@ -2142,7 +2142,7 @@
         <v>2003</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1">
         <v>22</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" s="1">
         <v>22</v>
@@ -2179,7 +2179,7 @@
         <v>1997</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>23</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="1">
         <v>23</v>
@@ -2216,7 +2216,7 @@
         <v>2003</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1">
         <v>24</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1">
         <v>24</v>
@@ -2253,7 +2253,7 @@
         <v>1997</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1">
         <v>25</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="B58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1">
         <v>25</v>
@@ -2290,7 +2290,7 @@
         <v>2007</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1">
         <v>26</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="B60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1">
         <v>26</v>
@@ -2327,7 +2327,7 @@
         <v>2006</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1">
         <v>27</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="B62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="1">
         <v>27</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="B63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="1">
         <v>27</v>
@@ -2381,7 +2381,7 @@
         <v>2003</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="1">
         <v>28</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="B65" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1">
         <v>28</v>
@@ -2418,7 +2418,7 @@
         <v>2006</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1">
         <v>29</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="B67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="1">
         <v>29</v>
@@ -2455,7 +2455,7 @@
         <v>2004</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="1">
         <v>30</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" s="1">
         <v>30</v>
